--- a/output/output_arianagrande.xlsx
+++ b/output/output_arianagrande.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRABA\PycharmProjects\Spark\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -55,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +98,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +184,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,6 +219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,14 +395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,10 +412,16 @@
         <v>344</v>
       </c>
       <c r="C1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1261</v>
+      </c>
+      <c r="D1">
+        <v>1605</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -406,10 +429,16 @@
         <v>62</v>
       </c>
       <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>106</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -417,10 +446,16 @@
         <v>393</v>
       </c>
       <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1781</v>
+      </c>
+      <c r="D3">
+        <v>2174</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -428,10 +463,16 @@
         <v>485</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1755</v>
+      </c>
+      <c r="D4">
+        <v>2240</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -439,10 +480,16 @@
         <v>321</v>
       </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>286</v>
+      </c>
+      <c r="D5">
+        <v>607</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -450,10 +497,16 @@
         <v>298</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D6">
+        <v>475</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -461,10 +514,16 @@
         <v>210</v>
       </c>
       <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1223</v>
+      </c>
+      <c r="D7">
+        <v>1433</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -472,10 +531,16 @@
         <v>458</v>
       </c>
       <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>437</v>
+      </c>
+      <c r="D8">
+        <v>895</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -483,10 +548,16 @@
         <v>340</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>7836</v>
+      </c>
+      <c r="D9">
+        <v>8176</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -494,10 +565,16 @@
         <v>410</v>
       </c>
       <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>743</v>
+      </c>
+      <c r="D10">
+        <v>1153</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -505,10 +582,16 @@
         <v>349</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>912</v>
+      </c>
+      <c r="D11">
+        <v>1261</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -516,7 +599,19 @@
         <v>167</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>230</v>
+      </c>
+      <c r="D12">
+        <v>397</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>SUM(D1:D12)</f>
+        <v>20522</v>
       </c>
     </row>
   </sheetData>
